--- a/Resume Parsering/output/parsed_resume_data.xlsx
+++ b/Resume Parsering/output/parsed_resume_data.xlsx
@@ -61,10 +61,10 @@
     <t>https://linkedin.com/in/anant-khutale-49172214</t>
   </si>
   <si>
-    <t>Reporting, Machine Learning, Automation, Python, AWS, Power BI, UAT, Pandas, Data Analysis, SQL, Excel</t>
-  </si>
-  <si>
-    <t>Diploma, Shivaji University, Master</t>
+    <t>UAT, Power BI, Data Analysis, Reporting, AWS, Excel, Pandas, Python, Automation, Machine Learning, SQL</t>
+  </si>
+  <si>
+    <t>Shivaji University, Diploma, Master</t>
   </si>
   <si>
     <t>in the telecom domain, specializing in Salesforce data , management, reporting, and stakeholder collaboration. Proficient in SQL, Python, Power BI, and Excel for data-, driven decision-making. Adept at optimizing sales operations and supporting cross-functional teams to enhance , operational efficiency. , , CORE SKILLS &amp; TOOLS , • Sales Operations: CRM Management (Salesforce), Data Integrity, Reporting &amp; Analytics , • Business Analysis: Requirement Gathering, Process Mapping, Gap Analysis, Stakeholder Communication , • Data Analytics &amp; Reporting: SQL, Python, Power BI, Excel Macros, Advanced Excel, VBA Programming , • Data Science: Data Analysis, Machine Learning (Pandas, NumPy, Scikit-learn), Visualization (Matplotlib, , Seaborn) , • Tools &amp; Technologies: Salesforce, GitHub, MS SharePoint, MS Access, SAP MM, SAP FICO , • Automation &amp; Efficiency: Process Automation, RPA Tools , • Agile &amp; Project Management: Scrum, User Acceptance Testing (UAT), Cross-Functional Team , Leadership , , PROFESSIONAL EXPERIENCE , Senior Serviceability Engineer , Avaya India Pvt. Ltd., Pune, India | November 2008 – August 2024 , • Managed Sales activities data integrity, ensuring accuracy in accounts, contacts, and opportunities. , • Acted as a key point of contact for Salesforce support issues, collaborating with technical teams for resolution. , • Developed and maintained reports and dashboards in Power BI and Excel to support sales operations. , • Spearheaded automation initiatives, reducing manual errors and improving efficiency by 30%. , • Worked with cross-functional teams to ensure sales process alignment and territory assignments. , • Provided training on Salesforce and data management best practices to improve user adoption. , , Finance Officer , Maersk Global Service Center, Pune, India | November 2006 – November 2008 , • Conducted distributor performance analysis, optimizing sales strategies and improving reporting accuracy. , • Led client requirement meetings, reducing report delivery time by 50%. , • Implemented finance process automation, increasing processing speed by 50% and reducing manual errors. , • Trained 25+ new hires on SAP FICO, MS Excel, and Macros, accelerating onboarding. , EDUCATION , • General Management Program for Executives, IIM Lucknow, 2019 , • Master of Commerce (M.Com) in Advanced Accountancy, Shivaji University, 2006 , • Diploma in Business Management (DBM), Shivaji University, 2004 , , CERTIFICATIONS , Python Programming Certified | MySQL - SQL Certified | Power BI Essential Training | AWS Certified Solutions , Architect – Associate | Cognigy AI Developer Certification | Agile Foundations Certification | Managing a Cross-, Functional Team Certification , KEY ACHIEVEMENTS ,  , Enhanced data accuracy by leveraging Python programming, Power BI, and advanced Excel for in-depth , analysis, ensuring reliable and actionable insights. ,  , Developed custom dashboards using Python, Power BI, and data visualization libraries, reducing reporting , time and improving strategic decision-making. ,  , Led automation of key processes with Python-based solutions, reducing SKU errors, quoting inaccuracies, and , optimizing operations. ,  , Applied data science techniques using Python, including machine learning and statistical analysis, along with , Power BI and advanced Excel, to identify trends and enhance forecasting accuracy. , ,</t>
